--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA65FD-E401-4671-877D-EEF5DFB0A01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08614507-2E76-46A8-91C1-E2E655221785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="IosCoupon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,13 @@
   <si>
     <t>검조각 20000개</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석 30000개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 24000달성 기념</t>
   </si>
 </sst>
 </file>
@@ -565,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1018,6 +1025,23 @@
       </c>
       <c r="E26" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>9010</v>
+      </c>
+      <c r="D27">
+        <v>30000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
